--- a/API/07_API兼インターフェース設計書(WebAPI).xlsx
+++ b/API/07_API兼インターフェース設計書(WebAPI).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/チーム制作/Whisper/API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\Whisper-1\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892EDD-B873-CA4D-8789-63ED5AE00D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB49F1-7693-4724-B15D-E828EEA66D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29300" windowHeight="17140" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="148" state="hidden" r:id="rId1"/>
@@ -4707,6 +4707,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4749,8 +4751,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5137,14 +5137,14 @@
       <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
@@ -5317,92 +5317,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -5419,7 +5419,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -6342,92 +6342,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -6444,7 +6444,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>54</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -6965,92 +6965,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -7067,7 +7067,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -7574,92 +7574,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -7676,7 +7676,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -7842,7 +7842,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -8208,92 +8208,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -8310,7 +8310,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -8430,7 +8430,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -9154,92 +9154,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -9256,7 +9256,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -9412,7 +9412,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -9774,92 +9774,92 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -9876,7 +9876,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -10391,63 +10391,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="20" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="20" customWidth="1"/>
+    <col min="4" max="5" width="6.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="20" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="20" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="20" customWidth="1"/>
     <col min="10" max="10" width="13" style="20" customWidth="1"/>
-    <col min="11" max="11" width="42.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="20"/>
-    <col min="13" max="13" width="27.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="20"/>
+    <col min="11" max="11" width="42.125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="20"/>
+    <col min="13" max="13" width="27.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.45" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="29" thickBot="1">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+    </row>
+    <row r="4" spans="1:11" ht="23.25" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -10482,8 +10482,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="77" customFormat="1" ht="15" thickTop="1">
-      <c r="A5" s="96">
+    <row r="5" spans="1:11" s="77" customFormat="1" ht="12.75" thickTop="1">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
       <c r="B5" s="76" t="s">
@@ -10492,32 +10492,32 @@
       <c r="C5" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="83" t="s">
         <v>338</v>
       </c>
       <c r="K5" s="76" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="80" customFormat="1" ht="14">
+    <row r="6" spans="1:11" s="80" customFormat="1" ht="12">
       <c r="A6" s="78">
         <v>2</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="80" customFormat="1" ht="14">
+    <row r="7" spans="1:11" s="80" customFormat="1" ht="12">
       <c r="A7" s="78">
         <v>3</v>
       </c>
@@ -10587,40 +10587,40 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="14">
-      <c r="A8" s="24">
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="12">
+      <c r="A8" s="76">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="18.95" customHeight="1">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" s="77" customFormat="1" ht="14">
+    <row r="11" spans="1:11" s="77" customFormat="1" ht="12">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="77" customFormat="1" ht="14">
+    <row r="12" spans="1:11" s="77" customFormat="1" ht="12">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="K12" s="76"/>
     </row>
-    <row r="13" spans="1:11" s="77" customFormat="1" ht="14">
+    <row r="13" spans="1:11" s="77" customFormat="1" ht="12">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="K13" s="76"/>
     </row>
-    <row r="14" spans="1:11" s="77" customFormat="1" ht="14">
+    <row r="14" spans="1:11" s="77" customFormat="1" ht="12">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="77" customFormat="1" ht="14">
+    <row r="15" spans="1:11" s="77" customFormat="1" ht="12">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="16" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A16" s="24">
         <v>12</v>
       </c>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="17" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A17" s="24">
         <v>13</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A18" s="24">
         <v>14</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -10953,7 +10953,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -10966,7 +10966,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="21" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -10979,7 +10979,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -10992,7 +10992,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -11005,7 +11005,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -11018,7 +11018,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -11031,7 +11031,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="26" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -11044,7 +11044,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="27" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -11057,7 +11057,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="28" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -11070,7 +11070,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="29" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -11083,7 +11083,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="30" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -11096,7 +11096,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -11109,7 +11109,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -11122,7 +11122,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="33" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -11135,7 +11135,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="34" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -11148,7 +11148,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="35" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -11161,7 +11161,7 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="36" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -11174,7 +11174,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -11187,7 +11187,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="38" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -11200,7 +11200,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -11213,7 +11213,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="40" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -11226,7 +11226,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="41" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -11239,7 +11239,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="42" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -11252,7 +11252,7 @@
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="43" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -11265,7 +11265,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="44" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -11278,7 +11278,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="45" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -11291,7 +11291,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="46" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -11304,7 +11304,7 @@
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="47" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -11317,7 +11317,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="48" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -11330,7 +11330,7 @@
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="49" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -11343,7 +11343,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="50" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -11356,7 +11356,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="51" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -11369,7 +11369,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="52" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -11382,7 +11382,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="53" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -11395,7 +11395,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="54" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -11408,7 +11408,7 @@
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="23" customFormat="1" ht="14">
+    <row r="55" spans="1:11" s="23" customFormat="1" ht="12">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -11444,92 +11444,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -11546,7 +11546,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -11666,7 +11666,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -11976,92 +11976,92 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -12078,7 +12078,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -12192,7 +12192,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -12477,92 +12477,92 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -12579,7 +12579,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -12693,7 +12693,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -12973,92 +12973,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -13075,7 +13075,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -13215,7 +13215,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -13535,16 +13535,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -13561,92 +13561,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -13663,7 +13663,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -13789,7 +13789,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -14350,74 +14350,74 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="63">
         <v>44343</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="64" t="s">
@@ -14454,7 +14454,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -14596,7 +14596,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -15641,92 +15641,92 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -15743,7 +15743,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="12.75" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    <row r="9" spans="1:10" ht="12.75" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -15885,7 +15885,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="12.75" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1">
+    <row r="17" spans="1:10" ht="12.75" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -16345,18 +16345,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16376,18 +16376,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7EF712-5A56-47DB-9C4D-51EC2B979E55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/API/07_API兼インターフェース設計書(WebAPI).xlsx
+++ b/API/07_API兼インターフェース設計書(WebAPI).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\Whisper-1\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/チーム制作/Whisper/API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB49F1-7693-4724-B15D-E828EEA66D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D0A7B-5465-174A-AFCA-2C99B6FFF152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="740" windowWidth="26000" windowHeight="18380" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="148" state="hidden" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="401">
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
@@ -4056,6 +4056,15 @@
   </si>
   <si>
     <t>検索結果取得</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>whisperCount</t>
+  </si>
+  <si>
+    <t>followerCount</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4533,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4751,6 +4760,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5137,14 +5151,14 @@
       <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
@@ -5314,17 +5328,17 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A6" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -5419,7 +5433,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -5449,7 +5463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -5563,7 +5577,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -5593,7 +5607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -6339,17 +6353,17 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -6444,7 +6458,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>54</v>
       </c>
@@ -6474,7 +6488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -6564,7 +6578,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +6608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -6965,14 +6979,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -7067,7 +7081,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -7097,7 +7111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -7221,7 +7235,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -7251,7 +7265,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -7574,14 +7588,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -7676,7 +7690,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -7706,7 +7720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -7842,7 +7856,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -7872,7 +7886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -8204,18 +8218,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="248" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -8310,7 +8324,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -8340,7 +8354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -8430,7 +8444,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -8460,7 +8474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -8603,7 +8617,7 @@
         <v>137</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>138</v>
+        <v>398</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>34</v>
@@ -8629,7 +8643,7 @@
         <v>139</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>142</v>
+        <v>399</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>112</v>
@@ -8681,7 +8695,7 @@
         <v>141</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>112</v>
@@ -9150,18 +9164,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="133" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B6" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -9256,7 +9270,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -9286,7 +9300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -9297,7 +9311,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>34</v>
@@ -9412,7 +9426,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -9442,7 +9456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -9453,7 +9467,7 @@
         <v>99</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>34</v>
@@ -9770,18 +9784,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="209" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -9876,7 +9890,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -9906,7 +9920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -10032,7 +10046,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -10062,7 +10076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -10391,24 +10405,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="20" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="20" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="20" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="20" customWidth="1"/>
     <col min="10" max="10" width="13" style="20" customWidth="1"/>
-    <col min="11" max="11" width="42.125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="20"/>
-    <col min="13" max="13" width="27.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="20"/>
+    <col min="11" max="11" width="42.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="20"/>
+    <col min="13" max="13" width="27.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10430,7 +10444,7 @@
       </c>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="26.45" customHeight="1">
+    <row r="2" spans="1:11" ht="26.5" customHeight="1">
       <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
@@ -10447,7 +10461,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
     </row>
-    <row r="4" spans="1:11" ht="23.25" thickBot="1">
+    <row r="4" spans="1:11" ht="29" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -10482,7 +10496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="77" customFormat="1" ht="12.75" thickTop="1">
+    <row r="5" spans="1:11" s="77" customFormat="1" ht="15" thickTop="1">
       <c r="A5" s="82">
         <v>1</v>
       </c>
@@ -10517,7 +10531,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="80" customFormat="1" ht="12">
+    <row r="6" spans="1:11" s="80" customFormat="1" ht="14">
       <c r="A6" s="78">
         <v>2</v>
       </c>
@@ -10552,7 +10566,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="80" customFormat="1" ht="12">
+    <row r="7" spans="1:11" s="80" customFormat="1" ht="14">
       <c r="A7" s="78">
         <v>3</v>
       </c>
@@ -10587,7 +10601,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -10620,7 +10634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="18.95" customHeight="1">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -10651,7 +10665,7 @@
       </c>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -10682,7 +10696,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" s="77" customFormat="1" ht="12">
+    <row r="11" spans="1:11" s="77" customFormat="1" ht="14">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -10715,7 +10729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="77" customFormat="1" ht="12">
+    <row r="12" spans="1:11" s="77" customFormat="1" ht="14">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -10746,7 +10760,7 @@
       </c>
       <c r="K12" s="76"/>
     </row>
-    <row r="13" spans="1:11" s="77" customFormat="1" ht="12">
+    <row r="13" spans="1:11" s="77" customFormat="1" ht="14">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -10777,7 +10791,7 @@
       </c>
       <c r="K13" s="76"/>
     </row>
-    <row r="14" spans="1:11" s="77" customFormat="1" ht="12">
+    <row r="14" spans="1:11" s="77" customFormat="1" ht="14">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -10810,7 +10824,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="77" customFormat="1" ht="12">
+    <row r="15" spans="1:11" s="77" customFormat="1" ht="14">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -10843,7 +10857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="16" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A16" s="24">
         <v>12</v>
       </c>
@@ -10874,73 +10888,73 @@
       </c>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" s="23" customFormat="1" ht="12">
-      <c r="A17" s="24">
+    <row r="17" spans="1:11" s="77" customFormat="1" ht="14">
+      <c r="A17" s="76">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="12">
-      <c r="A18" s="24">
+    <row r="18" spans="1:11" s="100" customFormat="1" ht="14">
+      <c r="A18" s="98">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="99"/>
+      <c r="F18" s="98" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="98" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -10953,7 +10967,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -10966,7 +10980,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="21" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -10979,7 +10993,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -10992,7 +11006,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -11005,7 +11019,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -11018,7 +11032,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -11031,7 +11045,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="26" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -11044,7 +11058,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="27" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -11057,7 +11071,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="28" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -11070,7 +11084,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="29" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -11083,7 +11097,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="30" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -11096,7 +11110,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -11109,7 +11123,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -11122,7 +11136,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="33" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -11135,7 +11149,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="34" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -11148,7 +11162,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="35" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -11161,7 +11175,7 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="36" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -11174,7 +11188,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -11187,7 +11201,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="38" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -11200,7 +11214,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -11213,7 +11227,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="40" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -11226,7 +11240,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="41" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -11239,7 +11253,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="42" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -11252,7 +11266,7 @@
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="43" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -11265,7 +11279,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="44" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -11278,7 +11292,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="45" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -11291,7 +11305,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="46" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -11304,7 +11318,7 @@
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="47" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -11317,7 +11331,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="48" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -11330,7 +11344,7 @@
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="49" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -11343,7 +11357,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="50" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -11356,7 +11370,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="51" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -11369,7 +11383,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="52" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -11382,7 +11396,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="53" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -11395,7 +11409,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="54" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -11408,7 +11422,7 @@
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="23" customFormat="1" ht="12">
+    <row r="55" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -11440,18 +11454,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -11546,7 +11560,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -11576,7 +11590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -11666,7 +11680,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -11696,7 +11710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -11976,14 +11990,14 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -12078,7 +12092,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -12108,7 +12122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -12192,7 +12206,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -12222,7 +12236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -12473,18 +12487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -12579,7 +12593,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -12609,7 +12623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -12693,7 +12707,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -12723,7 +12737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -12973,14 +12987,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -13075,7 +13089,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -13105,7 +13119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -13215,7 +13229,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -13245,7 +13259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -13535,16 +13549,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -13557,18 +13571,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A20" zoomScale="206" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -13663,7 +13677,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -13693,7 +13707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -13789,7 +13803,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -13819,7 +13833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -14350,14 +14364,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -14454,7 +14468,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -14484,7 +14498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -14596,7 +14610,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -14626,7 +14640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -15641,14 +15655,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="39" customWidth="1"/>
-    <col min="3" max="4" width="24.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="39" customWidth="1"/>
-    <col min="6" max="8" width="4.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="39" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="39" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="45" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
@@ -15743,7 +15757,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -15773,7 +15787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" thickTop="1">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -15885,7 +15899,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +15929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" thickTop="1">
+    <row r="17" spans="1:10" ht="15" thickTop="1">
       <c r="A17" s="52">
         <v>1</v>
       </c>
@@ -16345,18 +16359,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16376,18 +16390,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7EF712-5A56-47DB-9C4D-51EC2B979E55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/API/07_API兼インターフェース設計書(WebAPI).xlsx
+++ b/API/07_API兼インターフェース設計書(WebAPI).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/チーム制作/Whisper/API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D0A7B-5465-174A-AFCA-2C99B6FFF152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC08C14-04A9-0049-A4B1-C36ADA74BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="740" windowWidth="26000" windowHeight="18380" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28960" windowHeight="18380" tabRatio="872" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="148" state="hidden" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="404">
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
@@ -4065,6 +4065,15 @@
   </si>
   <si>
     <t>followerCount</t>
+  </si>
+  <si>
+    <t>timelineInfo.php</t>
+  </si>
+  <si>
+    <t>イイね：true　以外：false</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4533,7 +4542,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4718,6 +4727,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4760,11 +4773,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5344,79 +5352,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -6369,79 +6377,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -6992,79 +7000,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -7601,79 +7609,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -8218,8 +8226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="248" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="170" zoomScaleNormal="100" zoomScaleSheetLayoutView="248" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8235,79 +8243,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -9164,7 +9172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B6" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9181,79 +9189,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -9801,79 +9809,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -10405,7 +10413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -10426,40 +10434,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="85"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="26.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="4" spans="1:11" ht="29" thickBot="1">
       <c r="A4" s="21" t="s">
@@ -10921,36 +10929,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="100" customFormat="1" ht="14">
-      <c r="A18" s="98">
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="14">
+      <c r="A18" s="84">
         <v>14</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="98" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="84" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="98" t="s">
+      <c r="K18" s="84" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11471,79 +11479,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -12003,79 +12011,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -12504,79 +12512,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -13000,79 +13008,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -13549,16 +13557,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -13571,8 +13579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A20" zoomScale="206" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="182" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -13588,79 +13596,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -14027,7 +14035,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>116</v>
+        <v>403</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>110</v>
@@ -14098,7 +14106,7 @@
         <v>145</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>119</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -14377,61 +14385,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="63">
         <v>44343</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="64" t="s">
@@ -15668,79 +15676,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -16245,6 +16253,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007605912F2D65D948A2D62A06926ABED8" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dfd4cfe015fbbeff87d046a03120f855">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd854ec148d7fa3f28b696a2ee3dff9">
     <xsd:element name="properties">
@@ -16358,33 +16381,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56116DEA-3A22-47CB-9945-92F2457C8C7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16399,9 +16399,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56116DEA-3A22-47CB-9945-92F2457C8C7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/API/07_API兼インターフェース設計書(WebAPI).xlsx
+++ b/API/07_API兼インターフェース設計書(WebAPI).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/チーム制作/Whisper/API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC08C14-04A9-0049-A4B1-C36ADA74BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37B7A7-B666-C94C-B8B4-26EFCD6CD9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28960" windowHeight="18380" tabRatio="872" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28960" windowHeight="18380" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="148" state="hidden" r:id="rId1"/>
@@ -10413,8 +10413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -10642,36 +10642,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A9" s="24">
+    <row r="9" spans="1:11" s="77" customFormat="1" ht="19" customHeight="1">
+      <c r="A9" s="76">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A10" s="24">
@@ -13557,16 +13557,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -13579,7 +13579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="182" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScale="182" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -16253,21 +16253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007605912F2D65D948A2D62A06926ABED8" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dfd4cfe015fbbeff87d046a03120f855">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd854ec148d7fa3f28b696a2ee3dff9">
     <xsd:element name="properties">
@@ -16381,10 +16366,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56116DEA-3A22-47CB-9945-92F2457C8C7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16399,17 +16407,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56116DEA-3A22-47CB-9945-92F2457C8C7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/API/07_API兼インターフェース設計書(WebAPI).xlsx
+++ b/API/07_API兼インターフェース設計書(WebAPI).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/チーム制作/Whisper/API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65241D2-B108-DD4B-A5F1-2A03083580C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91B0E4-A057-1149-9388-FB8E5B5F2165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28960" windowHeight="18380" tabRatio="872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="405">
   <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
@@ -4074,6 +4074,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>userInfo.php</t>
   </si>
 </sst>
 </file>
@@ -4542,7 +4545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4726,10 +4729,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5352,79 +5351,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -6377,79 +6376,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -7000,79 +6999,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -7609,79 +7608,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -8243,79 +8242,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -9213,79 +9212,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -9833,79 +9832,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -10437,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="251" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -10458,40 +10457,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="87"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="26.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="4" spans="1:11" ht="29" thickBot="1">
       <c r="A4" s="21" t="s">
@@ -10701,7 +10700,7 @@
       <c r="A10" s="75">
         <v>6</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="83" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="75" t="s">
@@ -10800,7 +10799,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="D13" s="80" t="s">
         <v>36</v>
@@ -10953,36 +10952,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="38" customFormat="1" ht="14">
-      <c r="A18" s="83">
+    <row r="18" spans="1:11" s="76" customFormat="1" ht="14">
+      <c r="A18" s="75">
         <v>14</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="83" t="s">
+      <c r="E18" s="80"/>
+      <c r="F18" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="83" t="s">
+      <c r="J18" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="75" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11503,79 +11502,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -12035,79 +12034,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -12536,79 +12535,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -13032,79 +13031,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -13581,16 +13580,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -13620,79 +13619,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -14409,61 +14408,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="62">
         <v>44343</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="63" t="s">
@@ -15700,79 +15699,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1"/>
     <row r="7" spans="1:10">
@@ -16277,21 +16276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007605912F2D65D948A2D62A06926ABED8" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dfd4cfe015fbbeff87d046a03120f855">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd854ec148d7fa3f28b696a2ee3dff9">
     <xsd:element name="properties">
@@ -16405,10 +16389,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56116DEA-3A22-47CB-9945-92F2457C8C7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16423,17 +16430,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56116DEA-3A22-47CB-9945-92F2457C8C7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A7BD60-1C98-4D72-8168-1372D732D052}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>